--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_239.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_239.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(129.38, 135.34)]</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.374331550802139</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['E', 'A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[('0:00:06.726778', '0:00:16.305010')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:37.102000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5348837209302325</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:21.300000', '0:00:30.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4248366013071896</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['C', 'G', 'C', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['A', 'E', 'A', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:01.620158', '0:00:18.768095')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6071428571428571</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000'), ('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[('0:00:51.620000', '0:01:03.900000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.8, 69.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.56, 26.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
